--- a/Chonqqing Power Grid/整合数据14-18-0501.xlsx
+++ b/Chonqqing Power Grid/整合数据14-18-0501.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\chen_\git\Python-Practices\Chonqqing Power Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\chen_\git\python-practices\chonqqing power grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E239751D-8B41-4362-AE16-79E3A81F451C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0163911-FEBE-4A29-ACE8-88B0ADC54D11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Chonqqing Power Grid/整合数据14-18-0501.xlsx
+++ b/Chonqqing Power Grid/整合数据14-18-0501.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\chen_\git\python-practices\chonqqing power grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\chen_\git\Python-Practices\Chonqqing Power Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0163911-FEBE-4A29-ACE8-88B0ADC54D11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -736,8 +735,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +754,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -796,16 +804,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -905,23 +932,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -957,23 +967,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1149,11 +1142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1173,7 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7112,11 +7105,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H230" xr:uid="{78DBB30B-A34A-4342-ACE7-6B6E55B223E4}"/>
+  <autoFilter ref="A1:H230"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>1.112474705</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chonqqing Power Grid/整合数据14-18-0501.xlsx
+++ b/Chonqqing Power Grid/整合数据14-18-0501.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\chen_\git\Python-Practices\Chonqqing Power Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Administrator\Documents\GitHub\Python-Practices\Chonqqing Power Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$229</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>物资品类</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>10千伏小车式开关柜(开闭所用)</t>
-  </si>
-  <si>
-    <t>10千伏小车式开关柜(开闭所用)-优质</t>
   </si>
   <si>
     <t>10千伏小车式开关柜(开闭所用)-普通</t>
@@ -834,17 +831,83 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -864,7 +927,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1143,18 +1206,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H230"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1203,7 +1267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1229,7 +1293,7 @@
         <v>0.70022148389887562</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1255,7 +1319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1281,7 +1345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1307,7 +1371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1333,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1359,7 +1423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1385,7 +1449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1411,7 +1475,7 @@
         <v>1.5460935754769149</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1437,7 +1501,7 @@
         <v>0.38242662780725689</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1463,7 +1527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1489,7 +1553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1515,7 +1579,7 @@
         <v>0.7847076548333235</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1541,7 +1605,7 @@
         <v>1.4394464423606681</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1561,131 +1625,131 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>11142622.76</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>127834100.54000001</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>290781926.64000058</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>59260682.490000069</v>
       </c>
       <c r="G17">
-        <v>11142622.76</v>
+        <v>65125436.780000053</v>
       </c>
       <c r="H17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.91784216064047641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18">
-        <v>127834100.54000001</v>
+        <v>72177897.820000008</v>
       </c>
       <c r="D18">
-        <v>290781926.64000058</v>
+        <v>253556575.0100005</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>34376711.239999987</v>
       </c>
       <c r="F18">
-        <v>59260682.490000069</v>
+        <v>19509994.190000009</v>
       </c>
       <c r="G18">
-        <v>65125436.780000053</v>
+        <v>17443260.960000008</v>
       </c>
       <c r="H18">
-        <v>0.91784216064047641</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.1239774655063091</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19">
-        <v>72177897.820000008</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>253556575.0100005</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>34376711.239999987</v>
+        <v>21903662.75</v>
       </c>
       <c r="F19">
-        <v>19509994.190000009</v>
+        <v>18459663.600000001</v>
       </c>
       <c r="G19">
-        <v>17443260.960000008</v>
+        <v>19359917.120000001</v>
       </c>
       <c r="H19">
-        <v>1.1239774655063091</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.82195567628998245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>46192790.2299999</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>140856488.22999969</v>
       </c>
       <c r="E20">
-        <v>21903662.75</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>18459663.600000001</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>19359917.120000001</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.82195567628998245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.4629821445258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21">
-        <v>46192790.2299999</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>140856488.22999969</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>83457322.340000004</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1694,12 +1758,12 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.4629821445258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -1711,125 +1775,125 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>83457322.340000004</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>15670572.189999999</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>59516374.439999998</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>115531182.44</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>54008979.039999969</v>
       </c>
       <c r="G23">
-        <v>15670572.189999999</v>
+        <v>57699689.500000007</v>
       </c>
       <c r="H23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.63780341560683629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24">
-        <v>59516374.439999998</v>
+        <v>36880315.120000109</v>
       </c>
       <c r="D24">
-        <v>115531182.44</v>
+        <v>44269055.069999903</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>12642378.03999998</v>
       </c>
       <c r="F24">
-        <v>54008979.039999969</v>
+        <v>11634997.340000009</v>
       </c>
       <c r="G24">
-        <v>57699689.500000007</v>
+        <v>21171688.180000011</v>
       </c>
       <c r="H24">
-        <v>0.63780341560683629</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.51734400740160991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25">
-        <v>36880315.120000109</v>
+        <v>4532998.6900000004</v>
       </c>
       <c r="D25">
-        <v>44269055.069999903</v>
+        <v>1339499.73</v>
       </c>
       <c r="E25">
-        <v>12642378.03999998</v>
+        <v>313499.94</v>
       </c>
       <c r="F25">
-        <v>11634997.340000009</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>21171688.180000011</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.51734400740160991</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.3900156763259339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
       <c r="C26">
-        <v>4532998.6900000004</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1339499.73</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>313499.94</v>
+        <v>292944.59999999998</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1588509</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1.3900156763259339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.638724069379313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
@@ -1841,21 +1905,21 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>292944.59999999998</v>
+        <v>9429311.9700000007</v>
       </c>
       <c r="F27">
-        <v>1588509</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1.638724069379313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -1867,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>9429311.9700000007</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1875,13 +1939,10 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -1896,171 +1957,174 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>943235.2799999998</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>48952297.200000003</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>45401616.679999977</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>13343222.699999999</v>
       </c>
       <c r="F30">
-        <v>943235.2799999998</v>
+        <v>21082717.680000011</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>27110412.419999991</v>
       </c>
       <c r="H30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.4432173897274872</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31">
-        <v>48952297.200000003</v>
+        <v>1291095</v>
       </c>
       <c r="D31">
-        <v>45401616.679999977</v>
+        <v>1221012</v>
       </c>
       <c r="E31">
-        <v>13343222.699999999</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>21082717.680000011</v>
+        <v>390183.29999999987</v>
       </c>
       <c r="G31">
-        <v>27110412.419999991</v>
+        <v>793138.31999999983</v>
       </c>
       <c r="H31">
-        <v>0.4432173897274872</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.66501307781467389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
       <c r="C32">
-        <v>1291095</v>
+        <v>18190930.679999989</v>
       </c>
       <c r="D32">
-        <v>1221012</v>
+        <v>11657842.560000001</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>9238827.4599999972</v>
       </c>
       <c r="F32">
-        <v>390183.29999999987</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>793138.31999999983</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0.66501307781467389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.89834930611605568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33">
-        <v>18190930.679999989</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>11657842.560000001</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>9238827.4599999972</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>6827460.1200000001</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>8543630.0000000019</v>
       </c>
       <c r="H33">
-        <v>0.89834930611605568</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.237402060116086</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>104399342.7900001</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>203985344.37999949</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>75026751.839999959</v>
       </c>
       <c r="F34">
-        <v>6827460.1200000001</v>
+        <v>47984452.499999978</v>
       </c>
       <c r="G34">
-        <v>8543630.0000000019</v>
+        <v>16314871.970000001</v>
       </c>
       <c r="H34">
-        <v>1.237402060116086</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.71715041107509536</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
       <c r="C35">
-        <v>104399342.7900001</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>203985344.37999949</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>75026751.839999959</v>
+        <v>457338959.5399996</v>
       </c>
       <c r="F35">
-        <v>47984452.499999978</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>16314871.970000001</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0.71715041107509536</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
@@ -2072,99 +2136,99 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>457338959.5399996</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>202426561.43000001</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>536299484.44</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1112958308.5800011</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>540353841.41999912</v>
       </c>
       <c r="G37">
-        <v>202426561.43000001</v>
+        <v>477006628.12999988</v>
       </c>
       <c r="H37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.66220316575317884</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
       <c r="C38">
-        <v>536299484.44</v>
+        <v>97939541.619999319</v>
       </c>
       <c r="D38">
-        <v>1112958308.5800011</v>
+        <v>227909493.1000011</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>57829917.390000001</v>
       </c>
       <c r="F38">
-        <v>540353841.41999912</v>
+        <v>47066157.420000069</v>
       </c>
       <c r="G38">
-        <v>477006628.12999988</v>
+        <v>87849871.090000421</v>
       </c>
       <c r="H38">
-        <v>0.66220316575317884</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.62519132948189726</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
       <c r="C39">
-        <v>97939541.619999319</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>227909493.1000011</v>
+        <v>13834.81</v>
       </c>
       <c r="E39">
-        <v>57829917.390000001</v>
+        <v>1299669.6000000001</v>
       </c>
       <c r="F39">
-        <v>47066157.420000069</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>87849871.090000421</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0.62519132948189726</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.973773521674987</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
@@ -2173,24 +2237,24 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>13834.81</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1299669.6000000001</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>2323300.4900000002</v>
       </c>
       <c r="H40">
-        <v>1.973773521674987</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
@@ -2205,18 +2269,18 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>11873342.399999989</v>
       </c>
       <c r="G41">
-        <v>2323300.4900000002</v>
+        <v>9909348.4799999539</v>
       </c>
       <c r="H41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.2330139660503221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
@@ -2228,21 +2292,21 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>20997758.039999999</v>
       </c>
       <c r="F42">
-        <v>11873342.399999989</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>9909348.4799999539</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1.2330139660503221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
@@ -2254,21 +2318,21 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>20997758.039999999</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>16924371.699999999</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
@@ -2283,18 +2347,18 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>25716684.559999999</v>
       </c>
       <c r="G44">
-        <v>16924371.699999999</v>
+        <v>60390770.549999997</v>
       </c>
       <c r="H44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.3803571319555881</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
@@ -2306,21 +2370,21 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>21156584.609999999</v>
       </c>
       <c r="F45">
-        <v>25716684.559999999</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>60390770.549999997</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>1.3803571319555881</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
@@ -2332,21 +2396,21 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>21156584.609999999</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>15533666.23</v>
       </c>
       <c r="H46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
@@ -2361,18 +2425,18 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>29106295.109999999</v>
       </c>
       <c r="G47">
-        <v>15533666.23</v>
+        <v>54933050.489999987</v>
       </c>
       <c r="H47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.3176152704583359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
@@ -2387,235 +2451,235 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>29106295.109999999</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>54933050.489999987</v>
-      </c>
-      <c r="H48">
-        <v>1.3176152704583359</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>15207715.23</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>3335959.37</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>2312118.67</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1740024.32</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>124974.06</v>
+      </c>
+      <c r="H49">
+        <v>1.195431234060645</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50">
-        <v>15207715.23</v>
+        <v>6718140</v>
       </c>
       <c r="D50">
-        <v>3335959.37</v>
+        <v>6979401</v>
       </c>
       <c r="E50">
-        <v>2312118.67</v>
+        <v>832689</v>
       </c>
       <c r="F50">
-        <v>1740024.32</v>
+        <v>2718144</v>
       </c>
       <c r="G50">
-        <v>124974.06</v>
+        <v>2212353</v>
       </c>
       <c r="H50">
-        <v>1.195431234060645</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.64054554156305332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51">
-        <v>6718140</v>
+        <v>763425</v>
       </c>
       <c r="D51">
-        <v>6979401</v>
+        <v>2760030</v>
       </c>
       <c r="E51">
-        <v>832689</v>
+        <v>3495258</v>
       </c>
       <c r="F51">
-        <v>2718144</v>
+        <v>2245941.31</v>
       </c>
       <c r="G51">
-        <v>2212353</v>
+        <v>6381451.1199999992</v>
       </c>
       <c r="H51">
-        <v>0.64054554156305332</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.59313226855657752</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
       <c r="C52">
-        <v>763425</v>
+        <v>22266265.130000029</v>
       </c>
       <c r="D52">
-        <v>2760030</v>
+        <v>22698166.750000101</v>
       </c>
       <c r="E52">
-        <v>3495258</v>
+        <v>6734644.2100000121</v>
       </c>
       <c r="F52">
-        <v>2245941.31</v>
+        <v>5513856.4900000021</v>
       </c>
       <c r="G52">
-        <v>6381451.1199999992</v>
+        <v>6168556.6800000053</v>
       </c>
       <c r="H52">
-        <v>0.59313226855657752</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.63243859122235035</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
       <c r="C53">
-        <v>22266265.130000029</v>
+        <v>2269583.6</v>
       </c>
       <c r="D53">
-        <v>22698166.750000101</v>
+        <v>8005863.29</v>
       </c>
       <c r="E53">
-        <v>6734644.2100000121</v>
+        <v>765376.32000000007</v>
       </c>
       <c r="F53">
-        <v>5513856.4900000021</v>
+        <v>1328114.18</v>
       </c>
       <c r="G53">
-        <v>6168556.6800000053</v>
+        <v>1737141.98</v>
       </c>
       <c r="H53">
-        <v>0.63243859122235035</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.93533582283766803</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
       <c r="C54">
-        <v>2269583.6</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>8005863.29</v>
+        <v>307700237.8500005</v>
       </c>
       <c r="E54">
-        <v>765376.32000000007</v>
+        <v>127234438.5800008</v>
       </c>
       <c r="F54">
-        <v>1328114.18</v>
+        <v>85425026.160000443</v>
       </c>
       <c r="G54">
-        <v>1737141.98</v>
+        <v>245267522.32999831</v>
       </c>
       <c r="H54">
-        <v>0.93533582283766803</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.72182775786874209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>71514417.239999995</v>
       </c>
       <c r="D55">
-        <v>307700237.8500005</v>
+        <v>175435075.92000011</v>
       </c>
       <c r="E55">
-        <v>127234438.5800008</v>
+        <v>36872715.420000017</v>
       </c>
       <c r="F55">
-        <v>85425026.160000443</v>
+        <v>15611098.810000001</v>
       </c>
       <c r="G55">
-        <v>245267522.32999831</v>
+        <v>77296084.460000068</v>
       </c>
       <c r="H55">
-        <v>0.72182775786874209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.72899522895633151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56">
-        <v>71514417.239999995</v>
+        <v>298603.89</v>
       </c>
       <c r="D56">
-        <v>175435075.92000011</v>
+        <v>6656789.8799999999</v>
       </c>
       <c r="E56">
-        <v>36872715.420000017</v>
+        <v>517647.78</v>
       </c>
       <c r="F56">
-        <v>15611098.810000001</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>77296084.460000068</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>0.72899522895633151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.7318671658933491</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
       </c>
       <c r="C57">
-        <v>298603.89</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>6656789.8799999999</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>517647.78</v>
+        <v>142700712.35000011</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2624,12 +2688,12 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1.7318671658933491</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
@@ -2638,24 +2702,24 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>571284.18999999983</v>
       </c>
       <c r="E58">
-        <v>142700712.35000011</v>
+        <v>2737165.790000001</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>2870547.5900000008</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>5914641.9000000041</v>
       </c>
       <c r="H58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.86309600112266815</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
@@ -2664,24 +2728,24 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>571284.18999999983</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>2737165.790000001</v>
+        <v>9427981.1299999971</v>
       </c>
       <c r="F59">
-        <v>2870547.5900000008</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>5914641.9000000041</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0.86309600112266815</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
@@ -2693,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>9427981.1299999971</v>
+        <v>191272963.86000001</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2705,9 +2769,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
@@ -2716,24 +2780,24 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>611219.25999999989</v>
       </c>
       <c r="E61">
-        <v>191272963.86000001</v>
+        <v>423119.34</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>94897.400000000009</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.0964253257908481</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>67</v>
@@ -2742,88 +2806,88 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>611219.25999999989</v>
+        <v>27432808.679999951</v>
       </c>
       <c r="E62">
-        <v>423119.34</v>
+        <v>17775656.350000039</v>
       </c>
       <c r="F62">
-        <v>94897.400000000009</v>
+        <v>13011455.74999998</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>24302793.830000039</v>
       </c>
       <c r="H62">
-        <v>1.0964253257908481</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.585217520383426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>68</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>16148369.699999999</v>
       </c>
       <c r="D63">
-        <v>27432808.679999951</v>
+        <v>6597174.3800000036</v>
       </c>
       <c r="E63">
-        <v>17775656.350000039</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>13011455.74999998</v>
+        <v>603040.06000000006</v>
       </c>
       <c r="G63">
-        <v>24302793.830000039</v>
+        <v>347816.91</v>
       </c>
       <c r="H63">
-        <v>0.585217520383426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.309145328890684</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
       <c r="C64">
-        <v>16148369.699999999</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>6597174.3800000036</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>9976.6899999999987</v>
       </c>
       <c r="F64">
-        <v>603040.06000000006</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>347816.91</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>1.309145328890684</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>70</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>77199.88</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>536538.85999999975</v>
       </c>
       <c r="E65">
-        <v>9976.6899999999987</v>
+        <v>54039.91</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2832,38 +2896,38 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.5255734027517469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
       </c>
       <c r="C66">
-        <v>77199.88</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>536538.85999999975</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>54039.91</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>76069103.950000048</v>
       </c>
       <c r="H66">
-        <v>1.5255734027517469</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -2878,18 +2942,18 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>981572.05</v>
       </c>
       <c r="G67">
-        <v>76069103.950000048</v>
+        <v>550467.97</v>
       </c>
       <c r="H67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.3030555998980271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
@@ -2904,18 +2968,18 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>981572.05</v>
+        <v>1210177.8</v>
       </c>
       <c r="G68">
-        <v>550467.97</v>
+        <v>487597.5</v>
       </c>
       <c r="H68">
-        <v>1.3030555998980271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.3974431436482351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>74</v>
@@ -2927,21 +2991,21 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1048447.94</v>
       </c>
       <c r="F69">
-        <v>1210177.8</v>
+        <v>1300019.93</v>
       </c>
       <c r="G69">
-        <v>487597.5</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1.3974431436482351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.236401097440335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
@@ -2953,21 +3017,21 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>1048447.94</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1300019.93</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>11507317.529999999</v>
       </c>
       <c r="H70">
-        <v>1.236401097440335</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>76</v>
@@ -2985,15 +3049,12 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>11507317.529999999</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
@@ -3011,12 +3072,15 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2225808</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>78</v>
@@ -3025,24 +3089,24 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>2686000.02</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1106000.04</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>2225808</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.390693263467784</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>79</v>
@@ -3051,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2686000.02</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>1106000.04</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3062,62 +3126,62 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74">
-        <v>1.390693263467784</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>80</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>8836499.1899999995</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1150500.92</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>31229932.919999979</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>60453553.219999991</v>
       </c>
       <c r="G75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40282355.390000001</v>
+      </c>
+      <c r="H75">
+        <v>0.75575950425285665</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>81</v>
       </c>
       <c r="C76">
-        <v>8836499.1899999995</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>1150500.92</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>31229932.919999979</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>60453553.219999991</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>40282355.390000001</v>
+        <v>22757053.409999989</v>
       </c>
       <c r="H76">
-        <v>0.75575950425285665</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>82</v>
@@ -3129,125 +3193,125 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>22757053.409999989</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>83</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>9151989.22000001</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>7359062.330000001</v>
       </c>
       <c r="E78">
-        <v>95000</v>
+        <v>2427243.5100000012</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>2191393.4000000008</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>2518876.0700000012</v>
       </c>
       <c r="H78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.62076914583067122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>84</v>
       </c>
       <c r="C79">
-        <v>9151989.22000001</v>
+        <v>92375843.689999908</v>
       </c>
       <c r="D79">
-        <v>7359062.330000001</v>
+        <v>124287780.8800001</v>
       </c>
       <c r="E79">
-        <v>2427243.5100000012</v>
+        <v>88922896.300000072</v>
       </c>
       <c r="F79">
-        <v>2191393.4000000008</v>
+        <v>16022983.699999999</v>
       </c>
       <c r="G79">
-        <v>2518876.0700000012</v>
+        <v>65956849.699999988</v>
       </c>
       <c r="H79">
-        <v>0.62076914583067122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.46348728706804648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>85</v>
       </c>
       <c r="C80">
-        <v>92375843.689999908</v>
+        <v>31199258.43</v>
       </c>
       <c r="D80">
-        <v>124287780.8800001</v>
+        <v>228581151.8800002</v>
       </c>
       <c r="E80">
-        <v>88922896.300000072</v>
+        <v>51875267.36999999</v>
       </c>
       <c r="F80">
-        <v>16022983.699999999</v>
+        <v>33271291.920000009</v>
       </c>
       <c r="G80">
-        <v>65956849.699999988</v>
+        <v>37845087.060000002</v>
       </c>
       <c r="H80">
-        <v>0.46348728706804648</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.99738986470494073</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>86</v>
       </c>
       <c r="C81">
-        <v>31199258.43</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>228581151.8800002</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>51875267.36999999</v>
+        <v>7812.68</v>
       </c>
       <c r="F81">
-        <v>33271291.920000009</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>37845087.060000002</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0.99738986470494073</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>87</v>
@@ -3259,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>7812.68</v>
+        <v>21743943.16</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3271,9 +3335,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>88</v>
@@ -3282,10 +3346,10 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>768877.2</v>
       </c>
       <c r="E83">
-        <v>21743943.16</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3297,61 +3361,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>89</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>22583737.519999988</v>
       </c>
       <c r="D84">
-        <v>768877.2</v>
+        <v>25193757.990000021</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>6071049.2699999977</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>4510337.1499999994</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>4556679.3300000019</v>
       </c>
       <c r="H84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.73788096666077452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>90</v>
       </c>
       <c r="C85">
-        <v>22583737.519999988</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>25193757.990000021</v>
+        <v>39148931.700000077</v>
       </c>
       <c r="E85">
-        <v>6071049.2699999977</v>
+        <v>37744652.76000002</v>
       </c>
       <c r="F85">
-        <v>4510337.1499999994</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>4556679.3300000019</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0.73788096666077452</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.225085225185264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>91</v>
@@ -3360,284 +3424,284 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>39148931.700000077</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>37744652.76000002</v>
+        <v>139821550.16999999</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>193816581.1399999</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>290106127.30000001</v>
       </c>
       <c r="H86">
-        <v>1.225085225185264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.90312109645496719</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>92</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>304256329.19000012</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>645575612.22999942</v>
       </c>
       <c r="E87">
-        <v>139821550.16999999</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>193816581.1399999</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>290106127.30000001</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>0.90312109645496719</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.3501206287413501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>93</v>
       </c>
       <c r="C88">
-        <v>304256329.19000012</v>
+        <v>2302092</v>
       </c>
       <c r="D88">
-        <v>645575612.22999942</v>
+        <v>4147182</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>2667366</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>6861348</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>6020352</v>
       </c>
       <c r="H88">
-        <v>1.3501206287413501</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.40850168580800073</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>94</v>
       </c>
       <c r="C89">
-        <v>2302092</v>
+        <v>5571531.0499999914</v>
       </c>
       <c r="D89">
-        <v>4147182</v>
+        <v>3310896.1700000032</v>
       </c>
       <c r="E89">
-        <v>2667366</v>
+        <v>4227153.4400000004</v>
       </c>
       <c r="F89">
-        <v>6861348</v>
+        <v>2577239.1400000011</v>
       </c>
       <c r="G89">
-        <v>6020352</v>
+        <v>4016216.61</v>
       </c>
       <c r="H89">
-        <v>0.40850168580800073</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.25384529346832507</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>95</v>
       </c>
       <c r="C90">
-        <v>5571531.0499999914</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>3310896.1700000032</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>4227153.4400000004</v>
+        <v>11496695.6</v>
       </c>
       <c r="F90">
-        <v>2577239.1400000011</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>4016216.61</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>0.25384529346832507</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>96</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>23154870.960000001</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>31521688.870000001</v>
       </c>
       <c r="E91">
-        <v>11496695.6</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>8647998.8500000015</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>18790907.050000001</v>
       </c>
       <c r="H91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.67203277555269914</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>97</v>
       </c>
       <c r="C92">
-        <v>23154870.960000001</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>31521688.870000001</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>8647998.8500000015</v>
+        <v>27990249.349999979</v>
       </c>
       <c r="G92">
-        <v>18790907.050000001</v>
+        <v>46360896.109999917</v>
       </c>
       <c r="H92">
-        <v>0.67203277555269914</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.2855429773993119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>98</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>4878861.5600000015</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>68000.01999999999</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>187000.01</v>
       </c>
       <c r="F93">
-        <v>27990249.349999979</v>
+        <v>2414115.04</v>
       </c>
       <c r="G93">
-        <v>46360896.109999917</v>
+        <v>3875418.15</v>
       </c>
       <c r="H93">
-        <v>1.2855429773993119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.84399553510498337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>99</v>
       </c>
       <c r="C94">
-        <v>4878861.5600000015</v>
+        <v>695337.76</v>
       </c>
       <c r="D94">
-        <v>68000.01999999999</v>
+        <v>955412.61000000022</v>
       </c>
       <c r="E94">
-        <v>187000.01</v>
+        <v>330863.32000000018</v>
       </c>
       <c r="F94">
-        <v>2414115.04</v>
+        <v>341924.22</v>
       </c>
       <c r="G94">
-        <v>3875418.15</v>
+        <v>317228.60000000009</v>
       </c>
       <c r="H94">
-        <v>0.84399553510498337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.48538401754368549</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>100</v>
       </c>
       <c r="C95">
-        <v>695337.76</v>
+        <v>37149182.190000013</v>
       </c>
       <c r="D95">
-        <v>955412.61000000022</v>
+        <v>71459405.720000073</v>
       </c>
       <c r="E95">
-        <v>330863.32000000018</v>
+        <v>17638278.969999991</v>
       </c>
       <c r="F95">
-        <v>341924.22</v>
+        <v>14103172.580000009</v>
       </c>
       <c r="G95">
-        <v>317228.60000000009</v>
+        <v>24598521.45999999</v>
       </c>
       <c r="H95">
-        <v>0.48538401754368549</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.63003284869609821</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>101</v>
       </c>
       <c r="C96">
-        <v>37149182.190000013</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>71459405.720000073</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>17638278.969999991</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>14103172.580000009</v>
+        <v>2390920.06</v>
       </c>
       <c r="G96">
-        <v>24598521.45999999</v>
+        <v>6672649.6299999971</v>
       </c>
       <c r="H96">
-        <v>0.63003284869609821</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.434548801823669</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>102</v>
@@ -3646,24 +3710,24 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>198518.05</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>760045.08</v>
       </c>
       <c r="F97">
-        <v>2390920.06</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>6672649.6299999971</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>1.434548801823669</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.535547585379379</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>103</v>
@@ -3672,24 +3736,24 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>198518.05</v>
+        <v>7470680.929999996</v>
       </c>
       <c r="E98">
-        <v>760045.08</v>
+        <v>5712751.4199999971</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>2366559.689999999</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>11542449.080000009</v>
       </c>
       <c r="H98">
-        <v>1.535547585379379</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.7404028314629314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>104</v>
@@ -3698,88 +3762,88 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>7470680.929999996</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>5712751.4199999971</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>2366559.689999999</v>
+        <v>838506.71</v>
       </c>
       <c r="G99">
-        <v>11542449.080000009</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>0.7404028314629314</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>105</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>102451356.58</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>167524274.84999961</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>90542984.530000046</v>
       </c>
       <c r="F100">
-        <v>838506.71</v>
+        <v>17850509.140000001</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>25477992.469999999</v>
       </c>
       <c r="H100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.68056717876867145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>106</v>
       </c>
       <c r="C101">
-        <v>102451356.58</v>
+        <v>3898.25</v>
       </c>
       <c r="D101">
-        <v>167524274.84999961</v>
+        <v>51.29</v>
       </c>
       <c r="E101">
-        <v>90542984.530000046</v>
+        <v>51.29</v>
       </c>
       <c r="F101">
-        <v>17850509.140000001</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>25477992.469999999</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>0.68056717876867145</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.9361130264461479</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>107</v>
       </c>
       <c r="C102">
-        <v>3898.25</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>51.29</v>
+        <v>108000.36</v>
       </c>
       <c r="E102">
-        <v>51.29</v>
+        <v>432001.44</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3788,12 +3852,12 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>1.9361130264461479</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.549193338482967</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>108</v>
@@ -3802,24 +3866,24 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>108000.36</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>432001.44</v>
+        <v>106388.18</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>600646.2699999999</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>46498.92</v>
       </c>
       <c r="H103">
-        <v>1.549193338482967</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.51512356814578</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>109</v>
@@ -3831,59 +3895,59 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>106388.18</v>
+        <v>964623.46000000043</v>
       </c>
       <c r="F104">
-        <v>600646.2699999999</v>
+        <v>654037.13</v>
       </c>
       <c r="G104">
-        <v>46498.92</v>
+        <v>2919182.43</v>
       </c>
       <c r="H104">
-        <v>1.51512356814578</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.1827766960262009</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>106800.06</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1299400.6599999999</v>
       </c>
       <c r="E105">
-        <v>964623.46000000043</v>
+        <v>71200.039999999994</v>
       </c>
       <c r="F105">
-        <v>654037.13</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>2919182.43</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>1.1827766960262009</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.704553160666491</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>111</v>
       </c>
       <c r="C106">
-        <v>106800.06</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>1299400.6599999999</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>71200.039999999994</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3891,152 +3955,152 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="H106">
-        <v>1.704553160666491</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>112</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>5878691.8399999999</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>2426677.6600000011</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>2341958</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>2052686.04</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>0.74466633324485432</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>113</v>
       </c>
       <c r="C108">
-        <v>5878691.8399999999</v>
+        <v>439490.09</v>
       </c>
       <c r="D108">
-        <v>2426677.6600000011</v>
+        <v>43330.02</v>
       </c>
       <c r="E108">
-        <v>2341958</v>
+        <v>259980.07</v>
       </c>
       <c r="F108">
-        <v>2052686.04</v>
+        <v>61900</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>185700.02</v>
       </c>
       <c r="H108">
-        <v>0.74466633324485432</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.73074235605596316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>114</v>
       </c>
       <c r="C109">
-        <v>439490.09</v>
+        <v>486278.91</v>
       </c>
       <c r="D109">
-        <v>43330.02</v>
+        <v>351243.36</v>
       </c>
       <c r="E109">
-        <v>259980.07</v>
+        <v>1539837.01</v>
       </c>
       <c r="F109">
-        <v>61900</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>185700.02</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>0.73074235605596316</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.18994660195782</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>115</v>
       </c>
       <c r="C110">
-        <v>486278.91</v>
+        <v>8715664.1600000001</v>
       </c>
       <c r="D110">
-        <v>351243.36</v>
+        <v>25121922.890000012</v>
       </c>
       <c r="E110">
-        <v>1539837.01</v>
+        <v>4992819.9899999993</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>3660380.12</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>4004501.830000001</v>
       </c>
       <c r="H110">
-        <v>1.18994660195782</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.87241455463976358</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>116</v>
       </c>
       <c r="C111">
-        <v>8715664.1600000001</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>25121922.890000012</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>4992819.9899999993</v>
+        <v>138531.98000000001</v>
       </c>
       <c r="F111">
-        <v>3660380.12</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>4004501.830000001</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>0.87241455463976358</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>117</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>904549.23</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1603106.820000001</v>
       </c>
       <c r="E112">
-        <v>138531.98000000001</v>
+        <v>1092285.0900000001</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -4045,24 +4109,24 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.87607898952244478</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>118</v>
       </c>
       <c r="C113">
-        <v>904549.23</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>1603106.820000001</v>
+        <v>74182.11</v>
       </c>
       <c r="E113">
-        <v>1092285.0900000001</v>
+        <v>752715.8899999999</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -4071,12 +4135,12 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>0.87607898952244478</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.784199546051972</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>119</v>
@@ -4085,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>74182.11</v>
+        <v>158578.5</v>
       </c>
       <c r="E114">
-        <v>752715.8899999999</v>
+        <v>2237765.2599999998</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -4097,12 +4161,12 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1.784199546051972</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.8390322647616539</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>120</v>
@@ -4111,10 +4175,10 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>158578.5</v>
+        <v>239868.44</v>
       </c>
       <c r="E115">
-        <v>2237765.2599999998</v>
+        <v>1611626.86</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -4123,12 +4187,12 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>1.8390322647616539</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.6947870420303339</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>121</v>
@@ -4137,24 +4201,24 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>239868.44</v>
+        <v>28700.03</v>
       </c>
       <c r="E116">
-        <v>1611626.86</v>
+        <v>196859.77</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1381916.2699999991</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>180564.46</v>
       </c>
       <c r="H116">
-        <v>1.6947870420303339</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.4489641389257599</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>122</v>
@@ -4163,24 +4227,24 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>28700.03</v>
+        <v>20220.82</v>
       </c>
       <c r="E117">
-        <v>196859.77</v>
+        <v>335317.02</v>
       </c>
       <c r="F117">
-        <v>1381916.2699999991</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>180564.46</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>1.4489641389257599</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.8610769714635771</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>123</v>
@@ -4189,10 +4253,10 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>20220.82</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>335317.02</v>
+        <v>118699.9</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -4201,12 +4265,12 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1.8610769714635771</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>124</v>
@@ -4218,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>118699.9</v>
+        <v>86623.439999999959</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -4230,9 +4294,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>125</v>
@@ -4244,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>86623.439999999959</v>
+        <v>8963707.2000000216</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -4256,9 +4320,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>126</v>
@@ -4270,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>8963707.2000000216</v>
+        <v>594128.9800000001</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -4282,9 +4346,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>127</v>
@@ -4296,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>594128.9800000001</v>
+        <v>2489221.750000007</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -4308,9 +4372,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>128</v>
@@ -4322,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>2489221.750000007</v>
+        <v>90785540.940000057</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -4334,9 +4398,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>129</v>
@@ -4348,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>90785540.940000057</v>
+        <v>116336014.58999979</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -4360,9 +4424,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>130</v>
@@ -4374,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>116336014.58999979</v>
+        <v>174798217.43000031</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -4386,9 +4450,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>131</v>
@@ -4400,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>174798217.43000031</v>
+        <v>21294013.469999969</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -4412,9 +4476,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>132</v>
@@ -4426,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>21294013.469999969</v>
+        <v>25177253.479999989</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -4438,9 +4502,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>133</v>
@@ -4452,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>25177253.479999989</v>
+        <v>811556.29000000015</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -4464,9 +4528,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>134</v>
@@ -4478,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>811556.29000000015</v>
+        <v>330685.28999999992</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -4490,9 +4554,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>135</v>
@@ -4504,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>330685.28999999992</v>
+        <v>416291462.28999913</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -4516,9 +4580,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>136</v>
@@ -4530,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>416291462.28999913</v>
+        <v>20154064.199999999</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -4542,9 +4606,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>137</v>
@@ -4556,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>20154064.199999999</v>
+        <v>2098481.67</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -4568,9 +4632,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>138</v>
@@ -4582,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>2098481.67</v>
+        <v>410226.75000000058</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -4594,9 +4658,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>139</v>
@@ -4608,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>410226.75000000058</v>
+        <v>203312.98</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -4620,9 +4684,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>140</v>
@@ -4634,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>203312.98</v>
+        <v>7130309.25</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -4646,9 +4710,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>141</v>
@@ -4660,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>7130309.25</v>
+        <v>65932979.029999942</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -4672,9 +4736,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>142</v>
@@ -4686,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>65932979.029999942</v>
+        <v>42274.44</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -4698,9 +4762,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>143</v>
@@ -4712,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>42274.44</v>
+        <v>68605.849999999977</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -4724,9 +4788,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>144</v>
@@ -4738,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>68605.849999999977</v>
+        <v>370684370.56999981</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -4750,9 +4814,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>145</v>
@@ -4764,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>370684370.56999981</v>
+        <v>18513269.050000001</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4776,9 +4840,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>146</v>
@@ -4790,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>18513269.050000001</v>
+        <v>518000</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4802,9 +4866,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>147</v>
@@ -4816,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>518000</v>
+        <v>213151.66000000009</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4828,9 +4892,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>148</v>
@@ -4842,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>213151.66000000009</v>
+        <v>1212977.8900000011</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -4854,9 +4918,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>149</v>
@@ -4868,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>1212977.8900000011</v>
+        <v>12253777.060000001</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -4880,9 +4944,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>150</v>
@@ -4894,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>12253777.060000001</v>
+        <v>27075912.52999999</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -4906,9 +4970,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>151</v>
@@ -4920,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>27075912.52999999</v>
+        <v>3772094.4299999969</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -4932,9 +4996,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>152</v>
@@ -4946,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>3772094.4299999969</v>
+        <v>3211334.1</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -4958,9 +5022,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>153</v>
@@ -4972,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>3211334.1</v>
+        <v>12043283.930000011</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -4984,9 +5048,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>154</v>
@@ -4998,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>12043283.930000011</v>
+        <v>14063669.100000011</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -5010,9 +5074,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>155</v>
@@ -5024,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>14063669.100000011</v>
+        <v>54781.74</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -5036,9 +5100,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>156</v>
@@ -5050,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>54781.74</v>
+        <v>5665056.080000001</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -5062,9 +5126,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>157</v>
@@ -5076,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>5665056.080000001</v>
+        <v>954641.38000000012</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -5088,9 +5152,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>158</v>
@@ -5102,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>954641.38000000012</v>
+        <v>2288395.470000003</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -5114,9 +5178,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>159</v>
@@ -5128,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>2288395.470000003</v>
+        <v>273738.86</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -5140,9 +5204,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>160</v>
@@ -5154,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>273738.86</v>
+        <v>407973.87000000029</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -5166,21 +5230,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>161</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>1978659.89</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>330999.90999999997</v>
       </c>
       <c r="E156">
-        <v>407973.87000000029</v>
+        <v>465979.93</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -5189,168 +5253,168 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.3239781670584549</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>162</v>
       </c>
       <c r="C157">
-        <v>1978659.89</v>
+        <v>107415714.88</v>
       </c>
       <c r="D157">
-        <v>330999.90999999997</v>
+        <v>120315514.94</v>
       </c>
       <c r="E157">
-        <v>465979.93</v>
+        <v>58210994.670000046</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>34201063.670000002</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>50020986.460000008</v>
       </c>
       <c r="H157">
-        <v>1.3239781670584549</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.45486338828340978</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>163</v>
       </c>
       <c r="C158">
-        <v>107415714.88</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>120315514.94</v>
+        <v>220792.76</v>
       </c>
       <c r="E158">
-        <v>58210994.670000046</v>
+        <v>165594.57</v>
       </c>
       <c r="F158">
-        <v>34201063.670000002</v>
+        <v>0</v>
       </c>
       <c r="G158">
-        <v>50020986.460000008</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>0.45486338828340978</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.2453996981544779</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>164</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>13094472.109999999</v>
       </c>
       <c r="D159">
-        <v>220792.76</v>
+        <v>6210353.060000008</v>
       </c>
       <c r="E159">
-        <v>165594.57</v>
+        <v>3287843.5500000021</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>1163467.8899999999</v>
       </c>
       <c r="H159">
-        <v>1.2453996981544779</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9841738375469401</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>165</v>
       </c>
       <c r="C160">
-        <v>13094472.109999999</v>
+        <v>0</v>
       </c>
       <c r="D160">
-        <v>6210353.060000008</v>
+        <v>0</v>
       </c>
       <c r="E160">
-        <v>3287843.5500000021</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>39436781.209999964</v>
       </c>
       <c r="G160">
-        <v>1163467.8899999999</v>
+        <v>73887920.270000055</v>
       </c>
       <c r="H160">
-        <v>0.9841738375469401</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.315692123935803</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>166</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>2599040.6899999981</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>87860.87</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>82550.81</v>
       </c>
       <c r="F161">
-        <v>39436781.209999964</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>73887920.270000055</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>1.315692123935803</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.8474522730199781</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>167</v>
       </c>
       <c r="C162">
-        <v>2599040.6899999981</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>87860.87</v>
+        <v>1828207.42</v>
       </c>
       <c r="E162">
-        <v>82550.81</v>
+        <v>1654918.88</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>656152.57999999996</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>2320531.0499999998</v>
       </c>
       <c r="H162">
-        <v>1.8474522730199781</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.65225955888382636</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>168</v>
@@ -5359,140 +5423,140 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>1828207.42</v>
+        <v>354538.49999999988</v>
       </c>
       <c r="E163">
-        <v>1654918.88</v>
+        <v>829080.91999999981</v>
       </c>
       <c r="F163">
-        <v>656152.57999999996</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>2320531.0499999998</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>0.65225955888382636</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.3790764326791241</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>169</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>38001548.740000002</v>
       </c>
       <c r="D164">
-        <v>354538.49999999988</v>
+        <v>31451667.63999996</v>
       </c>
       <c r="E164">
-        <v>829080.91999999981</v>
+        <v>24003908.829999968</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>19719659.460000001</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>26728542.460000001</v>
       </c>
       <c r="H164">
-        <v>1.3790764326791241</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.22494940966010629</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>170</v>
       </c>
       <c r="C165">
-        <v>38001548.740000002</v>
+        <v>3686999.79</v>
       </c>
       <c r="D165">
-        <v>31451667.63999996</v>
+        <v>4288000</v>
       </c>
       <c r="E165">
-        <v>24003908.829999968</v>
+        <v>3096000.01</v>
       </c>
       <c r="F165">
-        <v>19719659.460000001</v>
+        <v>1762999.99</v>
       </c>
       <c r="G165">
-        <v>26728542.460000001</v>
+        <v>2195500.08</v>
       </c>
       <c r="H165">
-        <v>0.22494940966010629</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.30913543589052039</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>171</v>
       </c>
       <c r="C166">
-        <v>3686999.79</v>
+        <v>6823000.0800000001</v>
       </c>
       <c r="D166">
-        <v>4288000</v>
+        <v>4887835</v>
       </c>
       <c r="E166">
-        <v>3096000.01</v>
+        <v>2207388</v>
       </c>
       <c r="F166">
-        <v>1762999.99</v>
+        <v>1674437</v>
       </c>
       <c r="G166">
-        <v>2195500.08</v>
+        <v>934844</v>
       </c>
       <c r="H166">
-        <v>0.30913543589052039</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.66779241596197025</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>172</v>
       </c>
       <c r="C167">
-        <v>6823000.0800000001</v>
+        <v>582288.29999999993</v>
       </c>
       <c r="D167">
-        <v>4887835</v>
+        <v>132678.01</v>
       </c>
       <c r="E167">
-        <v>2207388</v>
+        <v>259830.33</v>
       </c>
       <c r="F167">
-        <v>1674437</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>934844</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>0.66779241596197025</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.1099381753675339</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>173</v>
       </c>
       <c r="C168">
-        <v>582288.29999999993</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>132678.01</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>259830.33</v>
+        <v>28606.21</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -5501,12 +5565,12 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>1.1099381753675339</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>174</v>
@@ -5518,73 +5582,73 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>28606.21</v>
+        <v>1412298.39</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>1121219.52</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.2381437557351871</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>175</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>672309.01</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>373495.32000000012</v>
       </c>
       <c r="E170">
-        <v>1412298.39</v>
+        <v>345985.5</v>
       </c>
       <c r="F170">
-        <v>1121219.52</v>
+        <v>0</v>
       </c>
       <c r="G170">
         <v>0</v>
       </c>
       <c r="H170">
-        <v>1.2381437557351871</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.91420153342318466</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>176</v>
       </c>
       <c r="C171">
-        <v>672309.01</v>
+        <v>0</v>
       </c>
       <c r="D171">
-        <v>373495.32000000012</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>345985.5</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>163031880.30999941</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>394589729.3599996</v>
       </c>
       <c r="H171">
-        <v>0.91420153342318466</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.389640886878823</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>177</v>
@@ -5599,18 +5663,15 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>163031880.30999941</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>394589729.3599996</v>
-      </c>
-      <c r="H172">
-        <v>1.389640886878823</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>178</v>
@@ -5628,12 +5689,15 @@
         <v>0</v>
       </c>
       <c r="G173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2155963.7299999991</v>
+      </c>
+      <c r="H173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>179</v>
@@ -5648,56 +5712,56 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>9529189.0199999996</v>
       </c>
       <c r="G174">
-        <v>2155963.7299999991</v>
+        <v>1263464.1599999999</v>
       </c>
       <c r="H174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.722317153634948</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>180</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>7673390.71</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>119823.33</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>7354561.0500000017</v>
       </c>
       <c r="F175">
-        <v>9529189.0199999996</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>1263464.1599999999</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>1.722317153634948</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.2091424127561241</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>181</v>
       </c>
       <c r="C176">
-        <v>7673390.71</v>
+        <v>0</v>
       </c>
       <c r="D176">
-        <v>119823.33</v>
+        <v>343156.41999999993</v>
       </c>
       <c r="E176">
-        <v>7354561.0500000017</v>
+        <v>1162721.8799999999</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -5706,12 +5770,12 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>1.2091424127561241</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.496831401781493</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>182</v>
@@ -5720,88 +5784,88 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>343156.41999999993</v>
+        <v>13604880.159999991</v>
       </c>
       <c r="E177">
-        <v>1162721.8799999999</v>
+        <v>14251317.189999999</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>15102481</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>21962165.739999991</v>
       </c>
       <c r="H177">
-        <v>1.496831401781493</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.55073389054394106</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>183</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>42587792.430000007</v>
       </c>
       <c r="D178">
-        <v>13604880.159999991</v>
+        <v>122547875.46999989</v>
       </c>
       <c r="E178">
-        <v>14251317.189999999</v>
+        <v>24768107.91</v>
       </c>
       <c r="F178">
-        <v>15102481</v>
+        <v>20401031.429999981</v>
       </c>
       <c r="G178">
-        <v>21962165.739999991</v>
+        <v>41466634.190000042</v>
       </c>
       <c r="H178">
-        <v>0.55073389054394106</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.73790384314317181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>184</v>
       </c>
       <c r="C179">
-        <v>42587792.430000007</v>
+        <v>0</v>
       </c>
       <c r="D179">
-        <v>122547875.46999989</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>24768107.91</v>
+        <v>291364346.6400001</v>
       </c>
       <c r="F179">
-        <v>20401031.429999981</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>41466634.190000042</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>0.73790384314317181</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>185</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1051984.44</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>231496.2000000001</v>
       </c>
       <c r="E180">
-        <v>291364346.6400001</v>
+        <v>124589.67</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -5810,24 +5874,24 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.40184374031956</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>186</v>
       </c>
       <c r="C181">
-        <v>1051984.44</v>
+        <v>328873.62</v>
       </c>
       <c r="D181">
-        <v>231496.2000000001</v>
+        <v>60848.41</v>
       </c>
       <c r="E181">
-        <v>124589.67</v>
+        <v>129994.32</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -5836,76 +5900,76 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>1.40184374031956</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.1762213232960259</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>187</v>
       </c>
       <c r="C182">
-        <v>328873.62</v>
+        <v>5028082.6900000013</v>
       </c>
       <c r="D182">
-        <v>60848.41</v>
+        <v>33373.5</v>
       </c>
       <c r="E182">
-        <v>129994.32</v>
+        <v>553814.94999999995</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>801467.89999999991</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>1689017.89</v>
       </c>
       <c r="H182">
-        <v>1.1762213232960259</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.1015111313757</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>188</v>
       </c>
       <c r="C183">
-        <v>5028082.6900000013</v>
+        <v>9753985.7300000004</v>
       </c>
       <c r="D183">
-        <v>33373.5</v>
+        <v>3049922.899999999</v>
       </c>
       <c r="E183">
-        <v>553814.94999999995</v>
+        <v>3465668.6799999988</v>
       </c>
       <c r="F183">
-        <v>801467.89999999991</v>
+        <v>0</v>
       </c>
       <c r="G183">
-        <v>1689017.89</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>1.1015111313757</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.0953201140306139</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>189</v>
       </c>
       <c r="C184">
-        <v>9753985.7300000004</v>
+        <v>1626512.94</v>
       </c>
       <c r="D184">
-        <v>3049922.899999999</v>
+        <v>2592156.060000001</v>
       </c>
       <c r="E184">
-        <v>3465668.6799999988</v>
+        <v>657516.60000000009</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -5914,24 +5978,24 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>1.0953201140306139</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.029659498960418</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>190</v>
       </c>
       <c r="C185">
-        <v>1626512.94</v>
+        <v>17254645.879999999</v>
       </c>
       <c r="D185">
-        <v>2592156.060000001</v>
+        <v>1753302.9800000009</v>
       </c>
       <c r="E185">
-        <v>657516.60000000009</v>
+        <v>12</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -5940,90 +6004,90 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>1.029659498960418</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.7783904872900429</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>191</v>
       </c>
       <c r="C186">
-        <v>17254645.879999999</v>
+        <v>3021620.03</v>
       </c>
       <c r="D186">
-        <v>1753302.9800000009</v>
+        <v>11630606.880000001</v>
       </c>
       <c r="E186">
-        <v>12</v>
+        <v>17274315.800000008</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>24830531.04999999</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>64312070.669999972</v>
       </c>
       <c r="H186">
-        <v>1.7783904872900429</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.87877091390927653</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>192</v>
       </c>
       <c r="C187">
-        <v>3021620.03</v>
+        <v>5355814.03</v>
       </c>
       <c r="D187">
-        <v>11630606.880000001</v>
+        <v>5954290.3699999982</v>
       </c>
       <c r="E187">
-        <v>17274315.800000008</v>
+        <v>7469266.6799999997</v>
       </c>
       <c r="F187">
-        <v>24830531.04999999</v>
+        <v>0</v>
       </c>
       <c r="G187">
-        <v>64312070.669999972</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>0.87877091390927653</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.83684842341794807</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>193</v>
       </c>
       <c r="C188">
-        <v>5355814.03</v>
+        <v>0</v>
       </c>
       <c r="D188">
-        <v>5954290.3699999982</v>
+        <v>2776410</v>
       </c>
       <c r="E188">
-        <v>7469266.6799999997</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>5486765.4400000004</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>9505145.5000000093</v>
       </c>
       <c r="H188">
-        <v>0.83684842341794807</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.0147429871778531</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>194</v>
@@ -6032,128 +6096,128 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <v>2776410</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>8619009.75</v>
       </c>
       <c r="F189">
-        <v>5486765.4400000004</v>
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>9505145.5000000093</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>1.0147429871778531</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>195</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>3175510.580000001</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>7968015.4799999874</v>
       </c>
       <c r="E190">
-        <v>8619009.75</v>
+        <v>3073243.6100000022</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>2316460.2499999972</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>3756554.6099999938</v>
       </c>
       <c r="H190">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.49483352917558338</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>196</v>
       </c>
       <c r="C191">
-        <v>3175510.580000001</v>
+        <v>0</v>
       </c>
       <c r="D191">
-        <v>7968015.4799999874</v>
+        <v>0</v>
       </c>
       <c r="E191">
-        <v>3073243.6100000022</v>
+        <v>584.46</v>
       </c>
       <c r="F191">
-        <v>2316460.2499999972</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>3756554.6099999938</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>0.49483352917558338</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>197</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>584698981.27999902</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>688956675.17999971</v>
       </c>
       <c r="E192">
-        <v>584.46</v>
+        <v>316805409.86999989</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>76385649.090000048</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>481486990.17000002</v>
       </c>
       <c r="H192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.50079013921670068</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>198</v>
       </c>
       <c r="C193">
-        <v>584698981.27999902</v>
+        <v>0</v>
       </c>
       <c r="D193">
-        <v>688956675.17999971</v>
+        <v>8501105.1400000043</v>
       </c>
       <c r="E193">
-        <v>316805409.86999989</v>
+        <v>89709146.649999812</v>
       </c>
       <c r="F193">
-        <v>76385649.090000048</v>
+        <v>0</v>
       </c>
       <c r="G193">
-        <v>481486990.17000002</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>0.50079013921670068</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.791458670580693</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>199</v>
@@ -6162,10 +6226,10 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>8501105.1400000043</v>
+        <v>0</v>
       </c>
       <c r="E194">
-        <v>89709146.649999812</v>
+        <v>0</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -6173,13 +6237,10 @@
       <c r="G194">
         <v>0</v>
       </c>
-      <c r="H194">
-        <v>1.791458670580693</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>200</v>
@@ -6191,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1324199.92</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -6199,62 +6260,65 @@
       <c r="G195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>201</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>31304804.899999999</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>7935987.0499999942</v>
       </c>
       <c r="E196">
-        <v>1324199.92</v>
+        <v>17317396.800000001</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>15537737.630000001</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>8283564.0599999987</v>
       </c>
       <c r="H196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.52836054388314124</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>202</v>
       </c>
       <c r="C197">
-        <v>31304804.899999999</v>
+        <v>0</v>
       </c>
       <c r="D197">
-        <v>7935987.0499999942</v>
+        <v>2098999.33</v>
       </c>
       <c r="E197">
-        <v>17317396.800000001</v>
+        <v>525556.47999999998</v>
       </c>
       <c r="F197">
-        <v>15537737.630000001</v>
+        <v>1322104.26</v>
       </c>
       <c r="G197">
-        <v>8283564.0599999987</v>
+        <v>1068252.6499999999</v>
       </c>
       <c r="H197">
-        <v>0.52836054388314124</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.71079814064675884</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>203</v>
@@ -6263,36 +6327,33 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>2098999.33</v>
+        <v>0</v>
       </c>
       <c r="E198">
-        <v>525556.47999999998</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1322104.26</v>
+        <v>0</v>
       </c>
       <c r="G198">
-        <v>1068252.6499999999</v>
-      </c>
-      <c r="H198">
-        <v>0.71079814064675884</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>204</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>101017.8</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>136024.20000000001</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>35006.400000000001</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -6300,62 +6361,65 @@
       <c r="G199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H199">
+        <v>1.011035337293301</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>205</v>
       </c>
       <c r="C200">
-        <v>101017.8</v>
+        <v>1225792</v>
       </c>
       <c r="D200">
-        <v>136024.20000000001</v>
+        <v>818368.55000000016</v>
       </c>
       <c r="E200">
-        <v>35006.400000000001</v>
+        <v>498897.61</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>297099.82</v>
       </c>
       <c r="G200">
         <v>0</v>
       </c>
       <c r="H200">
-        <v>1.011035337293301</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.7453074602502674</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>206</v>
       </c>
       <c r="C201">
-        <v>1225792</v>
+        <v>0</v>
       </c>
       <c r="D201">
-        <v>818368.55000000016</v>
+        <v>1607287.5</v>
       </c>
       <c r="E201">
-        <v>498897.61</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>297099.82</v>
+        <v>454486.49999999988</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>48765.599999999999</v>
       </c>
       <c r="H201">
-        <v>0.7453074602502674</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.4609390214223921</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>207</v>
@@ -6364,24 +6428,24 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>1607287.5</v>
+        <v>0</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>3890339.4799999949</v>
       </c>
       <c r="F202">
-        <v>454486.49999999988</v>
+        <v>2844523.8899999969</v>
       </c>
       <c r="G202">
-        <v>48765.599999999999</v>
+        <v>763221.42000000016</v>
       </c>
       <c r="H202">
-        <v>1.4609390214223921</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.0570705263581821</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>208</v>
@@ -6390,24 +6454,24 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>1233438.57</v>
       </c>
       <c r="E203">
-        <v>3890339.4799999949</v>
+        <v>499297.5</v>
       </c>
       <c r="F203">
-        <v>2844523.8899999969</v>
+        <v>1029401.1</v>
       </c>
       <c r="G203">
-        <v>763221.42000000016</v>
+        <v>4831362.8999999994</v>
       </c>
       <c r="H203">
-        <v>1.0570705263581821</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.126719538237533</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>209</v>
@@ -6416,76 +6480,76 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>1233438.57</v>
+        <v>2978130.8400000031</v>
       </c>
       <c r="E204">
-        <v>499297.5</v>
+        <v>625833.29999999993</v>
       </c>
       <c r="F204">
-        <v>1029401.1</v>
+        <v>0</v>
       </c>
       <c r="G204">
-        <v>4831362.8999999994</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>1.126719538237533</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.6015724466156549</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>210</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>4334929.68</v>
       </c>
       <c r="D205">
-        <v>2978130.8400000031</v>
+        <v>9513390.2699999996</v>
       </c>
       <c r="E205">
-        <v>625833.29999999993</v>
+        <v>993299.99</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>803039.99</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>1076629.99</v>
       </c>
       <c r="H205">
-        <v>1.6015724466156549</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.002199333987926</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>211</v>
       </c>
       <c r="C206">
-        <v>4334929.68</v>
+        <v>0</v>
       </c>
       <c r="D206">
-        <v>9513390.2699999996</v>
+        <v>0</v>
       </c>
       <c r="E206">
-        <v>993299.99</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>803039.99</v>
+        <v>0</v>
       </c>
       <c r="G206">
-        <v>1076629.99</v>
+        <v>3121979.79</v>
       </c>
       <c r="H206">
-        <v>1.002199333987926</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>212</v>
@@ -6503,102 +6567,102 @@
         <v>0</v>
       </c>
       <c r="G207">
-        <v>3121979.79</v>
-      </c>
-      <c r="H207">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>213</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>268800.01</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>3803149.15</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>635094.97</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>2320837.88</v>
       </c>
       <c r="G208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1267596.32</v>
+      </c>
+      <c r="H208">
+        <v>0.77045097566410536</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>214</v>
       </c>
       <c r="C209">
-        <v>268800.01</v>
+        <v>0</v>
       </c>
       <c r="D209">
-        <v>3803149.15</v>
+        <v>1228851</v>
       </c>
       <c r="E209">
-        <v>635094.97</v>
+        <v>1307826</v>
       </c>
       <c r="F209">
-        <v>2320837.88</v>
+        <v>1076751</v>
       </c>
       <c r="G209">
-        <v>1267596.32</v>
+        <v>469989</v>
       </c>
       <c r="H209">
-        <v>0.77045097566410536</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.61611558054793669</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>215</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>14649912.199999999</v>
       </c>
       <c r="D210">
-        <v>1228851</v>
+        <v>36929017.340000011</v>
       </c>
       <c r="E210">
-        <v>1307826</v>
+        <v>1981673.32</v>
       </c>
       <c r="F210">
-        <v>1076751</v>
+        <v>0</v>
       </c>
       <c r="G210">
-        <v>469989</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>0.61611558054793669</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.325832363887256</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>216</v>
       </c>
       <c r="C211">
-        <v>14649912.199999999</v>
+        <v>5423823.3799999999</v>
       </c>
       <c r="D211">
-        <v>36929017.340000011</v>
+        <v>0</v>
       </c>
       <c r="E211">
-        <v>1981673.32</v>
+        <v>6313132.2999999998</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -6607,298 +6671,298 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>1.325832363887256</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.2305903970903811</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>217</v>
       </c>
       <c r="C212">
-        <v>5423823.3799999999</v>
+        <v>31711624.469999999</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>17811034.969999999</v>
       </c>
       <c r="E212">
-        <v>6313132.2999999998</v>
+        <v>9629941.6299999878</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>4449624.9200000009</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>2195617.69</v>
       </c>
       <c r="H212">
-        <v>1.2305903970903811</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.81444091348472714</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>218</v>
       </c>
       <c r="C213">
-        <v>31711624.469999999</v>
+        <v>2033197.94</v>
       </c>
       <c r="D213">
-        <v>17811034.969999999</v>
+        <v>184599.82</v>
       </c>
       <c r="E213">
-        <v>9629941.6299999878</v>
+        <v>15599.98</v>
       </c>
       <c r="F213">
-        <v>4449624.9200000009</v>
+        <v>0</v>
       </c>
       <c r="G213">
-        <v>2195617.69</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>0.81444091348472714</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.782747110649386</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>219</v>
       </c>
       <c r="C214">
-        <v>2033197.94</v>
+        <v>0</v>
       </c>
       <c r="D214">
-        <v>184599.82</v>
+        <v>0</v>
       </c>
       <c r="E214">
-        <v>15599.98</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>53582757.830000013</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>2234098.17</v>
       </c>
       <c r="H214">
-        <v>1.782747110649386</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.9015165809386929</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>220</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>7903130.46</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>14174992.18999997</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>2811603.5999999992</v>
       </c>
       <c r="F215">
-        <v>53582757.830000013</v>
+        <v>4191337.8</v>
       </c>
       <c r="G215">
-        <v>2234098.17</v>
+        <v>6790122.6499999994</v>
       </c>
       <c r="H215">
-        <v>1.9015165809386929</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.54919316984527999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>221</v>
       </c>
       <c r="C216">
-        <v>7903130.46</v>
+        <v>0</v>
       </c>
       <c r="D216">
-        <v>14174992.18999997</v>
+        <v>0</v>
       </c>
       <c r="E216">
-        <v>2811603.5999999992</v>
+        <v>56984637.869999997</v>
       </c>
       <c r="F216">
-        <v>4191337.8</v>
+        <v>0</v>
       </c>
       <c r="G216">
-        <v>6790122.6499999994</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>0.54919316984527999</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>222</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>126198362.5899999</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>232414501.34000039</v>
       </c>
       <c r="E217">
-        <v>56984637.869999997</v>
+        <v>39408099.610000037</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>32898331.57999998</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>63775876.999999888</v>
       </c>
       <c r="H217">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.7523004720212364</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>223</v>
       </c>
       <c r="C218">
-        <v>126198362.5899999</v>
+        <v>4524100.32</v>
       </c>
       <c r="D218">
-        <v>232414501.34000039</v>
+        <v>4247979.1300000008</v>
       </c>
       <c r="E218">
-        <v>39408099.610000037</v>
+        <v>4586660.41</v>
       </c>
       <c r="F218">
-        <v>32898331.57999998</v>
+        <v>1288222.8</v>
       </c>
       <c r="G218">
-        <v>63775876.999999888</v>
+        <v>953274.14000000013</v>
       </c>
       <c r="H218">
-        <v>0.7523004720212364</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.52557511836671877</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>224</v>
       </c>
       <c r="C219">
-        <v>4524100.32</v>
+        <v>9864460.9399999995</v>
       </c>
       <c r="D219">
-        <v>4247979.1300000008</v>
+        <v>9881948.2499999963</v>
       </c>
       <c r="E219">
-        <v>4586660.41</v>
+        <v>7767337.1600000039</v>
       </c>
       <c r="F219">
-        <v>1288222.8</v>
+        <v>3556733.4300000011</v>
       </c>
       <c r="G219">
-        <v>953274.14000000013</v>
+        <v>956351.72000000009</v>
       </c>
       <c r="H219">
-        <v>0.52557511836671877</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.55729659438232337</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>225</v>
       </c>
       <c r="C220">
-        <v>9864460.9399999995</v>
+        <v>623896.65</v>
       </c>
       <c r="D220">
-        <v>9881948.2499999963</v>
+        <v>28720064.879999999</v>
       </c>
       <c r="E220">
-        <v>7767337.1600000039</v>
+        <v>4315000.9499999983</v>
       </c>
       <c r="F220">
-        <v>3556733.4300000011</v>
+        <v>287644678.60999978</v>
       </c>
       <c r="G220">
-        <v>956351.72000000009</v>
+        <v>555275453.98999977</v>
       </c>
       <c r="H220">
-        <v>0.55729659438232337</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.245080841025527</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>226</v>
       </c>
       <c r="C221">
-        <v>623896.65</v>
+        <v>41936.899999999987</v>
       </c>
       <c r="D221">
-        <v>28720064.879999999</v>
+        <v>1273510.4099999999</v>
       </c>
       <c r="E221">
-        <v>4315000.9499999983</v>
+        <v>595955.02000000014</v>
       </c>
       <c r="F221">
-        <v>287644678.60999978</v>
+        <v>489227.84</v>
       </c>
       <c r="G221">
-        <v>555275453.98999977</v>
+        <v>356646.58</v>
       </c>
       <c r="H221">
-        <v>1.245080841025527</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.73649960718192697</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>227</v>
       </c>
       <c r="C222">
-        <v>41936.899999999987</v>
+        <v>0</v>
       </c>
       <c r="D222">
-        <v>1273510.4099999999</v>
+        <v>4287</v>
       </c>
       <c r="E222">
-        <v>595955.02000000014</v>
+        <v>1388990.83</v>
       </c>
       <c r="F222">
-        <v>489227.84</v>
+        <v>0</v>
       </c>
       <c r="G222">
-        <v>356646.58</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>0.73649960718192697</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.9923166178848859</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>228</v>
@@ -6907,24 +6971,24 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <v>4287</v>
+        <v>1910525.04</v>
       </c>
       <c r="E223">
-        <v>1388990.83</v>
+        <v>21616892.210000001</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>34614298.830000028</v>
       </c>
       <c r="G223">
-        <v>0</v>
+        <v>31403869.64999998</v>
       </c>
       <c r="H223">
-        <v>1.9923166178848859</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.80978228110863737</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>229</v>
@@ -6933,88 +6997,88 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>1910525.04</v>
+        <v>1591210.68</v>
       </c>
       <c r="E224">
-        <v>21616892.210000001</v>
+        <v>787549.14</v>
       </c>
       <c r="F224">
-        <v>34614298.830000028</v>
+        <v>42857.1</v>
       </c>
       <c r="G224">
-        <v>31403869.64999998</v>
+        <v>35497.800000000003</v>
       </c>
       <c r="H224">
-        <v>0.80978228110863737</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.2700817537980389</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>230</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>39034778.780000001</v>
       </c>
       <c r="D225">
-        <v>1591210.68</v>
+        <v>25025400.48999998</v>
       </c>
       <c r="E225">
-        <v>787549.14</v>
+        <v>18714871.850000039</v>
       </c>
       <c r="F225">
-        <v>42857.1</v>
+        <v>6981179.71</v>
       </c>
       <c r="G225">
-        <v>35497.800000000003</v>
+        <v>10358990.42</v>
       </c>
       <c r="H225">
-        <v>1.2700817537980389</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.57016049408822989</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>231</v>
       </c>
       <c r="C226">
-        <v>39034778.780000001</v>
+        <v>3735263.6100000008</v>
       </c>
       <c r="D226">
-        <v>25025400.48999998</v>
+        <v>7242951.6900000041</v>
       </c>
       <c r="E226">
-        <v>18714871.850000039</v>
+        <v>408265.11</v>
       </c>
       <c r="F226">
-        <v>6981179.71</v>
+        <v>0</v>
       </c>
       <c r="G226">
-        <v>10358990.42</v>
+        <v>0</v>
       </c>
       <c r="H226">
-        <v>0.57016049408822989</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.2520439066783069</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>232</v>
       </c>
       <c r="C227">
-        <v>3735263.6100000008</v>
+        <v>2225610.4500000002</v>
       </c>
       <c r="D227">
-        <v>7242951.6900000041</v>
+        <v>1399719.08</v>
       </c>
       <c r="E227">
-        <v>408265.11</v>
+        <v>1306844.8599999989</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -7023,24 +7087,24 @@
         <v>0</v>
       </c>
       <c r="H227">
-        <v>1.2520439066783069</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.87853499987771</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>233</v>
       </c>
       <c r="C228">
-        <v>2225610.4500000002</v>
+        <v>6902314.8299999814</v>
       </c>
       <c r="D228">
-        <v>1399719.08</v>
+        <v>21160772.08000008</v>
       </c>
       <c r="E228">
-        <v>1306844.8599999989</v>
+        <v>4973778.4999999981</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -7049,70 +7113,48 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>0.87853499987771</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.17597324756669</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>234</v>
       </c>
       <c r="C229">
-        <v>6902314.8299999814</v>
+        <v>2981827.07</v>
       </c>
       <c r="D229">
-        <v>21160772.08000008</v>
+        <v>17643.599999999999</v>
       </c>
       <c r="E229">
-        <v>4973778.4999999981</v>
+        <v>130410.54</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>262943.46000000002</v>
       </c>
       <c r="G229">
-        <v>0</v>
+        <v>1099530.8999999999</v>
       </c>
       <c r="H229">
-        <v>1.17597324756669</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230" t="s">
-        <v>235</v>
-      </c>
-      <c r="C230">
-        <v>2981827.07</v>
-      </c>
-      <c r="D230">
-        <v>17643.599999999999</v>
-      </c>
-      <c r="E230">
-        <v>130410.54</v>
-      </c>
-      <c r="F230">
-        <v>262943.46000000002</v>
-      </c>
-      <c r="G230">
-        <v>1099530.8999999999</v>
-      </c>
-      <c r="H230">
         <v>1.23442557833418</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H230"/>
+  <autoFilter ref="A1:H229">
+    <filterColumn colId="7">
+      <colorFilter dxfId="2"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>1.112474705</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>1.112474705</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chonqqing Power Grid/整合数据14-18-0501.xlsx
+++ b/Chonqqing Power Grid/整合数据14-18-0501.xlsx
@@ -804,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -812,21 +812,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -1146,7 +1137,7 @@
   <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1172,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2">
@@ -1233,7 +1224,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4">
@@ -1259,7 +1250,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C5">
@@ -1285,7 +1276,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6">
@@ -1311,7 +1302,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C7">
@@ -1337,7 +1328,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8">
@@ -1363,7 +1354,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9">
@@ -1389,7 +1380,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C10">
@@ -1441,7 +1432,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C12">
@@ -1467,7 +1458,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C13">
@@ -1519,7 +1510,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C15">
@@ -1545,7 +1536,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C16">
@@ -1571,7 +1562,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C17">
@@ -1623,7 +1614,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C19">
@@ -1675,7 +1666,7 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C21">
@@ -1701,7 +1692,7 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C22">
@@ -1727,7 +1718,7 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C23">
@@ -1805,7 +1796,7 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C26">
@@ -1831,7 +1822,7 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C27">
@@ -1857,7 +1848,7 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C28">
@@ -1906,7 +1897,7 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C30">
@@ -2010,7 +2001,7 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C34">
@@ -2062,7 +2053,7 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C36">
@@ -2088,7 +2079,7 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C37">
@@ -2166,7 +2157,7 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C40">
@@ -2192,7 +2183,7 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C41">
@@ -2218,7 +2209,7 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C42">
@@ -2244,7 +2235,7 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C43">
@@ -2270,7 +2261,7 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C44">
@@ -2296,7 +2287,7 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C45">
@@ -2322,7 +2313,7 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C46">
@@ -2348,7 +2339,7 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C47">
@@ -2374,7 +2365,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C48">
@@ -2423,7 +2414,7 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C50">
@@ -2605,7 +2596,7 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C57">
@@ -2631,7 +2622,7 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C58">
@@ -2683,7 +2674,7 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C60">
@@ -2709,7 +2700,7 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C61">
@@ -2735,7 +2726,7 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C62">
@@ -2787,7 +2778,7 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C64">
@@ -2813,7 +2804,7 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C65">
@@ -2839,7 +2830,7 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C66">
@@ -2865,7 +2856,7 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C67">
@@ -2891,7 +2882,7 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C68">
@@ -2917,7 +2908,7 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C69">
@@ -2943,7 +2934,7 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C70">
@@ -2969,7 +2960,7 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C71">
@@ -3018,7 +3009,7 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C73">
@@ -3044,7 +3035,7 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C74">
@@ -3119,7 +3110,7 @@
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C77">
@@ -3145,7 +3136,7 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C78">
@@ -3249,7 +3240,7 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C82">
@@ -3275,7 +3266,7 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C83">
@@ -3301,7 +3292,7 @@
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C84">
@@ -3353,7 +3344,7 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C86">
@@ -3405,7 +3396,7 @@
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C88">
@@ -3483,7 +3474,7 @@
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C91">
@@ -3535,7 +3526,7 @@
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C93">
@@ -3639,7 +3630,7 @@
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C97">
@@ -3665,7 +3656,7 @@
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C98">
@@ -3717,7 +3708,7 @@
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C100">
@@ -3769,7 +3760,7 @@
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C102">
@@ -3795,7 +3786,7 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C103">
@@ -3821,7 +3812,7 @@
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C104">
@@ -3847,7 +3838,7 @@
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C105">
@@ -3873,7 +3864,7 @@
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C106">
@@ -3974,7 +3965,7 @@
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C110">
@@ -4026,7 +4017,7 @@
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C112">
@@ -4078,7 +4069,7 @@
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C114">
@@ -4104,7 +4095,7 @@
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C115">
@@ -4130,7 +4121,7 @@
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C116">
@@ -4156,7 +4147,7 @@
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C117">
@@ -4182,7 +4173,7 @@
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C118">
@@ -4208,7 +4199,7 @@
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C119">
@@ -4234,7 +4225,7 @@
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C120">
@@ -4260,7 +4251,7 @@
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C121">
@@ -4286,7 +4277,7 @@
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C122">
@@ -4312,7 +4303,7 @@
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C123">
@@ -4338,7 +4329,7 @@
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C124">
@@ -4364,7 +4355,7 @@
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C125">
@@ -4390,7 +4381,7 @@
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C126">
@@ -4416,7 +4407,7 @@
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C127">
@@ -4442,7 +4433,7 @@
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C128">
@@ -4468,7 +4459,7 @@
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C129">
@@ -4494,7 +4485,7 @@
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C130">
@@ -4520,7 +4511,7 @@
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C131">
@@ -4546,7 +4537,7 @@
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C132">
@@ -4572,7 +4563,7 @@
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C133">
@@ -4598,7 +4589,7 @@
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C134">
@@ -4624,7 +4615,7 @@
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C135">
@@ -4650,7 +4641,7 @@
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C136">
@@ -4676,7 +4667,7 @@
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C137">
@@ -4702,7 +4693,7 @@
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C138">
@@ -4728,7 +4719,7 @@
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C139">
@@ -4754,7 +4745,7 @@
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C140">
@@ -4780,7 +4771,7 @@
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C141">
@@ -4806,7 +4797,7 @@
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C142">
@@ -4832,7 +4823,7 @@
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C143">
@@ -4858,7 +4849,7 @@
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C144">
@@ -4884,7 +4875,7 @@
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C145">
@@ -4910,7 +4901,7 @@
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C146">
@@ -4936,7 +4927,7 @@
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C147">
@@ -4962,7 +4953,7 @@
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C148">
@@ -4988,7 +4979,7 @@
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C149">
@@ -5014,7 +5005,7 @@
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C150">
@@ -5040,7 +5031,7 @@
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C151">
@@ -5066,7 +5057,7 @@
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C152">
@@ -5092,7 +5083,7 @@
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C153">
@@ -5118,7 +5109,7 @@
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C154">
@@ -5144,7 +5135,7 @@
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C155">
@@ -5170,7 +5161,7 @@
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C156">
@@ -5196,7 +5187,7 @@
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C157">
@@ -5248,7 +5239,7 @@
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C159">
@@ -5300,7 +5291,7 @@
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C161">
@@ -5326,7 +5317,7 @@
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C162">
@@ -5378,7 +5369,7 @@
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C164">
@@ -5482,7 +5473,7 @@
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C168">
@@ -5508,7 +5499,7 @@
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C169">
@@ -5534,7 +5525,7 @@
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C170">
@@ -5586,7 +5577,7 @@
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C172">
@@ -5635,7 +5626,7 @@
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C174">
@@ -5661,7 +5652,7 @@
       <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C175">
@@ -5687,7 +5678,7 @@
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C176">
@@ -5713,7 +5704,7 @@
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C177">
@@ -5791,7 +5782,7 @@
       <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C180">
@@ -5817,7 +5808,7 @@
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C181">
@@ -5843,7 +5834,7 @@
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C182">
@@ -5869,7 +5860,7 @@
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C183">
@@ -5895,7 +5886,7 @@
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C184">
@@ -5921,7 +5912,7 @@
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C185">
@@ -5947,7 +5938,7 @@
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C186">
@@ -6025,7 +6016,7 @@
       <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C189">
@@ -6051,7 +6042,7 @@
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C190">
@@ -6103,7 +6094,7 @@
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C192">
@@ -6155,7 +6146,7 @@
       <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C194">
@@ -6204,7 +6195,7 @@
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C196">
@@ -6305,7 +6296,7 @@
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="3" t="s">
         <v>205</v>
       </c>
       <c r="C200">
@@ -6357,7 +6348,7 @@
       <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="3" t="s">
         <v>207</v>
       </c>
       <c r="C202">
@@ -6383,7 +6374,7 @@
       <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C203">
@@ -6409,7 +6400,7 @@
       <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="3" t="s">
         <v>209</v>
       </c>
       <c r="C204">
@@ -6435,7 +6426,7 @@
       <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C205">
@@ -6461,7 +6452,7 @@
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="3" t="s">
         <v>211</v>
       </c>
       <c r="C206">
@@ -6487,7 +6478,7 @@
       <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C207">
@@ -6588,7 +6579,7 @@
       <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C211">
@@ -6614,7 +6605,7 @@
       <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C212">
@@ -6666,7 +6657,7 @@
       <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C214">
@@ -6692,7 +6683,7 @@
       <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C215">
@@ -6744,7 +6735,7 @@
       <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C217">
@@ -6848,7 +6839,7 @@
       <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C221">
@@ -6900,7 +6891,7 @@
       <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C223">
@@ -6952,7 +6943,7 @@
       <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C225">
@@ -7004,7 +6995,7 @@
       <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C227">
@@ -7056,7 +7047,7 @@
       <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C229">
@@ -7082,7 +7073,7 @@
       <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C230">
@@ -7108,14 +7099,14 @@
   <autoFilter ref="A1:H230"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1.112474705</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>